--- a/BOOKCOST.xlsx
+++ b/BOOKCOST.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{47DC86F4-5DC8-411B-BDC6-389B1014A16D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C471065D-60D6-481F-A6A3-206C59F4A285}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A0A13566-EA49-480B-8281-67E3883F7942}"/>
   </bookViews>
@@ -74,78 +74,15 @@
     <t>DEWA</t>
   </si>
   <si>
-    <t>EAKRAL</t>
-  </si>
-  <si>
-    <t>EASIIL</t>
-  </si>
-  <si>
-    <t>EATAML</t>
-  </si>
-  <si>
-    <t>EBBCAL</t>
-  </si>
-  <si>
-    <t>EBMRIL</t>
-  </si>
-  <si>
-    <t>EBNIL</t>
-  </si>
-  <si>
-    <t>EBRPTL</t>
-  </si>
-  <si>
-    <t>ECTRAL</t>
-  </si>
-  <si>
-    <t>EINCOL</t>
-  </si>
-  <si>
-    <t>EINDFL</t>
-  </si>
-  <si>
-    <t>EINKPL</t>
-  </si>
-  <si>
-    <t>EISATL</t>
-  </si>
-  <si>
-    <t>EJAPFAL</t>
-  </si>
-  <si>
-    <t>EKLBFL</t>
-  </si>
-  <si>
-    <t>EMEDCL</t>
-  </si>
-  <si>
     <t>EMTK</t>
   </si>
   <si>
-    <t>EMYORL</t>
-  </si>
-  <si>
     <t>ENRG</t>
   </si>
   <si>
     <t>ERAA</t>
   </si>
   <si>
-    <t>ESMGRL</t>
-  </si>
-  <si>
-    <t>ESUSIL</t>
-  </si>
-  <si>
-    <t>ETELKL</t>
-  </si>
-  <si>
-    <t>EUNTRL</t>
-  </si>
-  <si>
-    <t>EUNVRL</t>
-  </si>
-  <si>
     <t>EXCL</t>
   </si>
   <si>
@@ -210,6 +147,69 @@
   </si>
   <si>
     <t>BOOK COST</t>
+  </si>
+  <si>
+    <t>AKRA</t>
+  </si>
+  <si>
+    <t>ASII</t>
+  </si>
+  <si>
+    <t>ANTM</t>
+  </si>
+  <si>
+    <t>BBCA</t>
+  </si>
+  <si>
+    <t>BMRI</t>
+  </si>
+  <si>
+    <t>BBNI</t>
+  </si>
+  <si>
+    <t>BRPT</t>
+  </si>
+  <si>
+    <t>CTRA</t>
+  </si>
+  <si>
+    <t>INCO</t>
+  </si>
+  <si>
+    <t>INDF</t>
+  </si>
+  <si>
+    <t>INKP</t>
+  </si>
+  <si>
+    <t>ISAT</t>
+  </si>
+  <si>
+    <t>JPFA</t>
+  </si>
+  <si>
+    <t>KLBF</t>
+  </si>
+  <si>
+    <t>MEDC</t>
+  </si>
+  <si>
+    <t>MYOR</t>
+  </si>
+  <si>
+    <t>SMGR</t>
+  </si>
+  <si>
+    <t>SSIA</t>
+  </si>
+  <si>
+    <t>TLKM</t>
+  </si>
+  <si>
+    <t>UNTR</t>
+  </si>
+  <si>
+    <t>UNVR</t>
   </si>
 </sst>
 </file>
@@ -245,8 +245,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -584,7 +585,7 @@
   <dimension ref="A1:B57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -594,14 +595,14 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="B1" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2">
@@ -609,7 +610,7 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3">
@@ -617,7 +618,7 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4">
@@ -625,7 +626,7 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5">
@@ -633,7 +634,7 @@
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B6">
@@ -641,7 +642,7 @@
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B7">
@@ -649,7 +650,7 @@
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B8">
@@ -657,7 +658,7 @@
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B9">
@@ -665,7 +666,7 @@
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B10">
@@ -673,7 +674,7 @@
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B11">
@@ -681,7 +682,7 @@
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B12">
@@ -689,7 +690,7 @@
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+      <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B13">
@@ -697,352 +698,352 @@
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>12</v>
+      <c r="A14" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="B14">
         <v>933570897.91999996</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>13</v>
+      <c r="A15" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="B15">
         <v>1427762216.22</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>14</v>
+      <c r="A16" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="B16">
         <v>406574785.18000001</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>15</v>
+      <c r="A17" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="B17">
         <v>3808379413.8200002</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>16</v>
+      <c r="A18" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B18">
         <v>1656387201.53</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>17</v>
+      <c r="A19" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B19">
         <v>1118045466.6600001</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>18</v>
+      <c r="A20" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B20">
         <v>1443591910.3699999</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>19</v>
+      <c r="A21" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B21">
         <v>97120321.469999999</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>20</v>
+      <c r="A22" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B22">
         <v>125225828.26000001</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>21</v>
+      <c r="A23" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B23">
         <v>1358887184.29</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>22</v>
+      <c r="A24" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="B24">
         <v>181838080.59999999</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>23</v>
+      <c r="A25" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B25">
         <v>445563987.37</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>24</v>
+      <c r="A26" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B26">
         <v>390009966.05000001</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>25</v>
+      <c r="A27" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B27">
         <v>892617687.60000002</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>26</v>
+      <c r="A28" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B28">
         <v>141454276.58000001</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>27</v>
+      <c r="A29" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="B29">
         <v>193743699</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>28</v>
+      <c r="A30" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="B30">
         <v>831602466.17999995</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>29</v>
+      <c r="A31" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="B31">
         <v>541908473</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>30</v>
+      <c r="A32" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="B32">
         <v>59216247.549999997</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>31</v>
+      <c r="A33" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="B33">
         <v>112639174.03</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>32</v>
+      <c r="A34" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="B34">
         <v>645376194.76999998</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>33</v>
+      <c r="A35" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="B35">
         <v>2034766812.8199999</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>34</v>
+      <c r="A36" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="B36">
         <v>495995800.95999998</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>35</v>
+      <c r="A37" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="B37">
         <v>649108676</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>36</v>
+      <c r="A38" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="B38">
         <v>436550445</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>37</v>
+      <c r="A39" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="B39">
         <v>968014066.07000005</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>38</v>
+      <c r="A40" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="B40">
         <v>1040861170.13</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>39</v>
+      <c r="A41" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="B41">
         <v>382800284.31999999</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>40</v>
+      <c r="A42" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="B42">
         <v>640852101</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>41</v>
+      <c r="A43" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="B43">
         <v>223659426.66</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>42</v>
+      <c r="A44" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="B44">
         <v>1016707326.5599999</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>43</v>
+      <c r="A45" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="B45">
         <v>831120314.36000001</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>44</v>
+      <c r="A46" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="B46">
         <v>781688538.73000002</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>45</v>
+      <c r="A47" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="B47">
         <v>115848588.68000001</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>46</v>
+      <c r="A48" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="B48">
         <v>1065578960.8200001</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>47</v>
+      <c r="A49" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="B49">
         <v>53082033.890000001</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>48</v>
+      <c r="A50" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="B50">
         <v>565958331.07000005</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>49</v>
+      <c r="A51" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="B51">
         <v>54245632.149999999</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>50</v>
+      <c r="A52" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="B52">
         <v>130729701.19</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>51</v>
+      <c r="A53" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="B53">
         <v>1024961014.62</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
-        <v>52</v>
+      <c r="A54" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="B54">
         <v>533422288</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
-        <v>53</v>
+      <c r="A55" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="B55">
         <v>777793478</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
-        <v>54</v>
+      <c r="A56" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="B56">
         <v>1635819400.76</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
-        <v>55</v>
+      <c r="A57" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="B57">
         <v>1496275554.5799999</v>
